--- a/Packages/cn.etetet.map/Luban/Config/Datas/Map.xlsx
+++ b/Packages/cn.etetet.map/Luban/Config/Datas/Map.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="MapConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,24 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>CopyType</t>
+  </si>
+  <si>
+    <t>MaxLineNum</t>
+  </si>
+  <si>
+    <t>MaxPlayerNum</t>
+  </si>
+  <si>
+    <t>RecommendPlayerNum</t>
+  </si>
+  <si>
+    <t>MapResName</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -56,106 +74,66 @@
     <t>##group</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
+    <t>地图名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>副本类型</t>
+  </si>
+  <si>
+    <t>最大分线数量</t>
+  </si>
+  <si>
+    <t>单线最大人数</t>
+  </si>
+  <si>
+    <t>推荐人数，超过开新线</t>
+  </si>
+  <si>
+    <t>地图场景资源</t>
+  </si>
+  <si>
+    <t>GateMap</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>Map1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Map2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLineNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大分线数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxPlayerNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单线最大人数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecommendPlayerNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐人数，超过开新线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CopyType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Line</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lordaeron</t>
   </si>
   <si>
     <t>Copy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapResName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图场景资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GateMap</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lordaeron</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>大厅</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +155,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -214,11 +185,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -514,8 +485,8 @@
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -525,56 +496,56 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -591,47 +562,47 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -644,18 +615,18 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -667,21 +638,21 @@
         <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>1000</v>
@@ -693,21 +664,21 @@
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>1000</v>
@@ -719,12 +690,44 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0">
+        <v>100</v>
+      </c>
+      <c r="H9" s="0">
+        <v>50</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to ETET under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
+
 </file>